--- a/03_PE/012 导入表 IAT.xlsx
+++ b/03_PE/012 导入表 IAT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\03_PE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67D17C2-1AE8-472A-AAE9-FE3DF83D2911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DE9999-7114-4D73-B3CA-A5BF52CCBF6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="索引" sheetId="1" r:id="rId1"/>
@@ -303,10 +303,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>导入表结构(IAT)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>IAT在加载前，同INT一样内容</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3137,6 +3133,10 @@
   </si>
   <si>
     <t>//时间戳  用于判断是否绑定导入表(0 未绑定，0xffffffff 已绑定)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入表结构( IAT)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4687,8 +4687,8 @@
   </sheetPr>
   <dimension ref="B4:T17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -4730,7 +4730,7 @@
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
-        <v>89</v>
+        <v>1028</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>2</v>
@@ -4791,7 +4791,7 @@
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="G11" s="10" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -4808,7 +4808,7 @@
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="G12" s="10" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -4825,7 +4825,7 @@
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="G13" s="10" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -4955,7 +4955,7 @@
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -5000,7 +5000,7 @@
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -5014,7 +5014,7 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
@@ -5034,7 +5034,7 @@
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -5042,7 +5042,7 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="5" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="4"/>
@@ -5051,7 +5051,7 @@
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -5066,7 +5066,7 @@
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -5083,7 +5083,7 @@
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -5145,7 +5145,7 @@
     <row r="40" spans="2:17" x14ac:dyDescent="0.25">
       <c r="M40" s="5"/>
       <c r="N40" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
@@ -5154,7 +5154,7 @@
     <row r="41" spans="2:17" x14ac:dyDescent="0.25">
       <c r="M41" s="5"/>
       <c r="N41" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O41" s="5"/>
       <c r="P41" s="5"/>
@@ -5163,7 +5163,7 @@
     <row r="42" spans="2:17" x14ac:dyDescent="0.25">
       <c r="M42" s="5"/>
       <c r="N42" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O42" s="5"/>
       <c r="P42" s="5"/>
@@ -5202,7 +5202,7 @@
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B68" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
@@ -5400,7 +5400,7 @@
     </row>
     <row r="79" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
@@ -6631,13 +6631,15 @@
   </sheetPr>
   <dimension ref="B3:M31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -6653,7 +6655,7 @@
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -6669,7 +6671,7 @@
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -6699,7 +6701,7 @@
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -6729,7 +6731,7 @@
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -6745,7 +6747,7 @@
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -6775,7 +6777,7 @@
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -6791,7 +6793,7 @@
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -6808,7 +6810,7 @@
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -6824,7 +6826,7 @@
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -6840,7 +6842,7 @@
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -6856,7 +6858,7 @@
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -6886,7 +6888,7 @@
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -6902,7 +6904,7 @@
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -6932,7 +6934,7 @@
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -6948,7 +6950,7 @@
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -6964,7 +6966,7 @@
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -6981,7 +6983,7 @@
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -6997,7 +6999,7 @@
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
@@ -7026,7 +7028,7 @@
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
       <c r="C28" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -7042,7 +7044,7 @@
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
       <c r="C29" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -7058,7 +7060,7 @@
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -7073,7 +7075,7 @@
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -7110,2240 +7112,2240 @@
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H21" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H22" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H23" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H24" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H25" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H26" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H27" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H28" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H29" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H30" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H31" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H32" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="33" spans="4:8" x14ac:dyDescent="0.25">
       <c r="H33" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="34" spans="4:8" x14ac:dyDescent="0.25">
       <c r="H34" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="35" spans="4:8" x14ac:dyDescent="0.25">
       <c r="H35" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="36" spans="4:8" x14ac:dyDescent="0.25">
       <c r="H36" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="37" spans="4:8" x14ac:dyDescent="0.25">
       <c r="H37" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="38" spans="4:8" x14ac:dyDescent="0.25">
       <c r="H38" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="40" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="41" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="42" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="43" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="44" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="45" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="46" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E46" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="47" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E47" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="48" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E48" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="49" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E49" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="50" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E50" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="51" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E51" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="52" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E52" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="53" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E53" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="54" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E54" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="55" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E55" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="56" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E56" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="57" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E57" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="58" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E58" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="59" spans="3:9" x14ac:dyDescent="0.25">
       <c r="I59" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="60" spans="3:9" x14ac:dyDescent="0.25">
       <c r="I60" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="61" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E61" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="62" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="64" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H75" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H76" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F78" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F79" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F80" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D93" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H94" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H95" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H96" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="97" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H97" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="98" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H98" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="99" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H99" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="100" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H100" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="101" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D101" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="102" spans="3:8" x14ac:dyDescent="0.25">
       <c r="F102" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="103" spans="3:8" x14ac:dyDescent="0.25">
       <c r="F103" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="104" spans="3:8" x14ac:dyDescent="0.25">
       <c r="F104" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="105" spans="3:8" x14ac:dyDescent="0.25">
       <c r="F105" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="106" spans="3:8" x14ac:dyDescent="0.25">
       <c r="F106" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="107" spans="3:8" x14ac:dyDescent="0.25">
       <c r="F107" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="108" spans="3:8" x14ac:dyDescent="0.25">
       <c r="F108" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="110" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="111" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D111" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="112" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C112" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="117" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="118" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="119" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C119" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="120" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C120" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="121" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D121" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="122" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H122" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="123" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H123" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="124" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H124" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="125" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H125" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="126" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H126" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="127" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H127" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="128" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H128" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="129" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H129" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="130" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H130" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="131" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H131" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="132" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H132" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="133" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H133" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="134" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H134" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="135" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H135" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="136" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H136" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="137" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H137" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="138" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H138" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="139" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H139" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="140" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H140" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="141" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H141" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="142" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H142" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="143" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H143" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="144" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H144" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="145" spans="4:8" x14ac:dyDescent="0.25">
       <c r="H145" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="146" spans="4:8" x14ac:dyDescent="0.25">
       <c r="H146" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="147" spans="4:8" x14ac:dyDescent="0.25">
       <c r="H147" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="148" spans="4:8" x14ac:dyDescent="0.25">
       <c r="H148" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="149" spans="4:8" x14ac:dyDescent="0.25">
       <c r="H149" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="150" spans="4:8" x14ac:dyDescent="0.25">
       <c r="H150" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="151" spans="4:8" x14ac:dyDescent="0.25">
       <c r="H151" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="152" spans="4:8" x14ac:dyDescent="0.25">
       <c r="H152" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="153" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D153" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="154" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F154" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="155" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F155" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="156" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F156" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="157" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F157" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="158" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F158" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="159" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F159" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="160" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F160" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="161" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F161" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="162" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F162" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="163" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F163" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="164" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F164" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="165" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F165" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="166" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F166" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="167" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F167" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="168" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F168" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="169" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F169" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="170" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F170" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="171" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F171" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="172" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F172" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="173" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F173" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="174" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F174" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="175" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F175" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="176" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F176" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="177" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F177" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="178" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F178" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="179" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F179" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="180" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F180" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="181" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F181" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="182" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F182" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="183" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F183" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="184" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F184" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="185" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C185" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="186" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D186" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="187" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C187" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="188" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="192" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="193" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="195" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C195" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="196" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C196" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="197" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D197" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="198" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H198" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="199" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H199" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="200" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H200" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="201" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H201" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="202" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H202" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="203" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H203" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="204" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H204" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="205" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H205" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="206" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H206" t="s">
+        <v>786</v>
+      </c>
+      <c r="I206" t="s">
         <v>787</v>
-      </c>
-      <c r="I206" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="207" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H207" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="208" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H208" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="209" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H209" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="210" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H210" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="211" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H211" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="212" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H212" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="213" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H213" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="214" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H214" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="215" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H215" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="216" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H216" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="217" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H217" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="218" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H218" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="219" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H219" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="220" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H220" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="221" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H221" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="222" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H222" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="223" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H223" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="224" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H224" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="225" spans="4:8" x14ac:dyDescent="0.25">
       <c r="H225" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="226" spans="4:8" x14ac:dyDescent="0.25">
       <c r="H226" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="227" spans="4:8" x14ac:dyDescent="0.25">
       <c r="H227" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="228" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D228" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="229" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F229" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="230" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F230" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="231" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F231" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="232" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F232" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="233" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F233" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="234" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F234" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="235" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F235" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="236" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F236" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="237" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F237" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="238" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F238" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="239" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F239" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="240" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F240" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="241" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F241" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="242" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F242" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="243" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F243" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="244" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F244" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="245" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F245" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="246" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F246" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="247" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F247" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="248" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F248" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="249" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F249" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="250" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F250" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="251" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F251" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="252" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F252" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="253" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F253" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="254" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F254" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="255" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F255" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="256" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F256" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="257" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F257" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="258" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F258" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="259" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C259" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="260" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D260" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="261" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C261" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="262" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B262" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="264" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B264" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="265" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B265" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="266" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C266" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="267" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C267" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="268" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G268" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="269" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G269" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="270" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G270" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="271" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G271" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="272" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G272" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="273" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G273" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="274" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G274" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="275" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G275" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="276" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G276" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="277" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G277" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="278" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C278" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="279" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C279" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="280" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C280" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="281" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C281" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="282" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E282" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="283" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E283" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="284" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E284" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="285" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E285" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="286" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E286" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="287" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E287" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="288" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E288" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="289" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E289" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="290" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E290" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="291" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E291" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="292" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B292" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="294" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B294" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="295" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C295" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="296" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B296" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="297" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B297" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="298" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C298" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="299" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C299" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="300" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C300" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="302" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C302" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="303" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C303" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="304" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C304" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="305" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D305" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="306" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D306" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="307" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D307" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="308" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E308" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="309" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D309" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="310" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D310" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="311" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D311" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="312" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E312" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="313" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D313" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="314" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D314" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="315" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D315" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="316" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E316" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="317" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D317" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="318" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D318" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="319" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D319" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="320" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C320" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="321" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B321" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="323" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B323" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="324" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B324" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="325" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B325" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="326" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C326" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="327" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C327" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="328" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E328" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="329" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E329" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="330" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E330" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="331" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E331" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="332" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E332" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="333" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E333" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="334" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E334" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="335" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E335" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="336" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E336" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="337" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E337" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="338" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E338" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="339" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E339" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="340" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E340" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="341" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E341" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="342" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E342" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="343" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E343" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="344" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C344" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="345" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C345" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="346" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E346" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="347" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E347" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="348" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E348" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="349" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E349" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="350" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E350" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="351" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E351" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="352" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E352" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="353" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E353" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="354" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E354" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="355" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E355" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="356" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E356" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="357" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E357" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="358" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E358" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="359" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E359" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="360" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E360" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="361" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E361" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="362" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C362" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="363" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C363" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="364" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C364" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="365" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C365" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="366" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C366" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="367" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C367" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="368" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D368" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="369" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D369" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="370" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D370" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="371" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F371" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="372" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F372" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="373" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C373" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="375" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B375" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="379" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B379" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="380" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B380" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="381" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B381" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="382" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C382" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="383" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C383" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="384" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C384" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="386" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C386" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="387" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G387" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="388" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G388" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="389" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G389" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="390" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G390" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="391" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G391" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="392" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G392" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="393" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G393" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="394" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G394" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="396" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C396" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="397" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C397" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="399" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C399" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="400" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C400" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="401" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D401" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="402" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D402" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="403" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C403" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="405" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C405" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="406" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E406" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="407" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E407" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="408" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E408" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="409" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E409" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="410" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E410" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="411" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E411" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="412" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E412" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="414" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C414" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="415" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C415" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="416" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C416" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="417" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C417" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="418" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C418" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="420" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C420" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="421" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C421" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="422" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C422" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="423" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D423" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="424" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D424" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="425" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D425" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="426" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E426" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="427" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D427" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="428" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E428" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="429" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D429" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="430" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C430" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="432" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C432" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="433" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C433" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="434" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D434" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="435" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D435" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="436" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C436" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="438" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B438" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="442" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B442" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="443" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B443" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="444" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B444" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="445" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C445" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="446" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C446" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="447" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D447" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="448" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D448" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="449" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C449" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="451" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C451" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="452" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C452" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="453" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C453" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="454" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C454" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="455" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C455" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="456" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C456" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="457" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C457" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="458" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C458" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="459" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C459" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="460" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C460" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="461" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C461" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="463" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C463" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="464" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C464" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="465" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C465" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="466" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C466" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="467" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C467" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="468" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D468" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="469" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D469" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="471" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D471" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="472" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D472" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="473" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D473" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="474" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D474" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="476" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D476" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="477" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D477" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="478" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E478" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="480" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E480" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="481" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E481" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="482" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F482" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="483" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F483" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="484" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F484" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="485" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F485" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="486" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E486" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="487" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E487" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="488" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D488" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="489" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E489" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="490" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D490" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="492" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D492" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="493" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C493" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="494" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B494" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="498" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B498" s="5" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C498" s="5"/>
       <c r="D498" s="5"/>
@@ -9364,7 +9366,7 @@
     </row>
     <row r="499" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B499" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C499" s="5"/>
       <c r="D499" s="5"/>
@@ -9385,7 +9387,7 @@
     </row>
     <row r="500" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B500" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C500" s="4"/>
       <c r="D500" s="4"/>
@@ -9407,7 +9409,7 @@
     <row r="501" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B501" s="4"/>
       <c r="C501" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D501" s="4"/>
       <c r="E501" s="4"/>
@@ -9428,7 +9430,7 @@
     <row r="502" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B502" s="4"/>
       <c r="C502" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D502" s="4"/>
       <c r="E502" s="4"/>
@@ -9450,7 +9452,7 @@
       <c r="B503" s="4"/>
       <c r="C503" s="4"/>
       <c r="D503" s="4" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E503" s="4"/>
       <c r="F503" s="4"/>
@@ -9471,7 +9473,7 @@
       <c r="B504" s="4"/>
       <c r="C504" s="4"/>
       <c r="D504" s="4" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E504" s="4"/>
       <c r="F504" s="4"/>
@@ -9491,7 +9493,7 @@
     <row r="505" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B505" s="4"/>
       <c r="C505" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D505" s="4"/>
       <c r="E505" s="4"/>
@@ -9531,7 +9533,7 @@
     <row r="507" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B507" s="4"/>
       <c r="C507" s="4" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="D507" s="4"/>
       <c r="E507" s="4"/>
@@ -9552,7 +9554,7 @@
     <row r="508" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B508" s="4"/>
       <c r="C508" s="4" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D508" s="4"/>
       <c r="E508" s="4"/>
@@ -9573,7 +9575,7 @@
     <row r="509" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B509" s="4"/>
       <c r="C509" s="4" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D509" s="4"/>
       <c r="E509" s="4"/>
@@ -9613,7 +9615,7 @@
     <row r="511" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B511" s="4"/>
       <c r="C511" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D511" s="4"/>
       <c r="E511" s="4"/>
@@ -9634,7 +9636,7 @@
     <row r="512" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B512" s="4"/>
       <c r="C512" s="4" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D512" s="4"/>
       <c r="E512" s="4"/>
@@ -9655,7 +9657,7 @@
     <row r="513" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B513" s="4"/>
       <c r="C513" s="4" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D513" s="4"/>
       <c r="E513" s="4"/>
@@ -9681,7 +9683,7 @@
       <c r="F514" s="4"/>
       <c r="G514" s="4"/>
       <c r="H514" s="4" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I514" s="4"/>
       <c r="J514" s="4"/>
@@ -9702,7 +9704,7 @@
       <c r="F515" s="4"/>
       <c r="G515" s="4"/>
       <c r="H515" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="I515" s="4"/>
       <c r="J515" s="4"/>
@@ -9723,7 +9725,7 @@
       <c r="F516" s="4"/>
       <c r="G516" s="4"/>
       <c r="H516" s="4" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="I516" s="4"/>
       <c r="J516" s="4"/>
@@ -9744,7 +9746,7 @@
       <c r="F517" s="4"/>
       <c r="G517" s="4"/>
       <c r="H517" s="4" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="I517" s="4"/>
       <c r="J517" s="4"/>
@@ -9765,7 +9767,7 @@
       <c r="F518" s="4"/>
       <c r="G518" s="4"/>
       <c r="H518" s="4" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="I518" s="4"/>
       <c r="J518" s="4"/>
@@ -9781,7 +9783,7 @@
     <row r="519" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B519" s="4"/>
       <c r="C519" s="4" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="D519" s="4"/>
       <c r="E519" s="4"/>
@@ -9802,7 +9804,7 @@
     <row r="520" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B520" s="4"/>
       <c r="C520" s="4" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D520" s="4"/>
       <c r="E520" s="4"/>
@@ -9823,7 +9825,7 @@
     <row r="521" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B521" s="4"/>
       <c r="C521" s="4" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D521" s="4"/>
       <c r="E521" s="4"/>
@@ -9844,7 +9846,7 @@
     <row r="522" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B522" s="4"/>
       <c r="C522" s="4" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="D522" s="4"/>
       <c r="E522" s="4"/>
@@ -9865,7 +9867,7 @@
     <row r="523" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B523" s="4"/>
       <c r="C523" s="4" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="D523" s="4"/>
       <c r="E523" s="4"/>
@@ -9886,7 +9888,7 @@
     <row r="524" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B524" s="4"/>
       <c r="C524" s="4" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="D524" s="4"/>
       <c r="E524" s="4"/>
@@ -9907,7 +9909,7 @@
     <row r="525" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B525" s="4"/>
       <c r="C525" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D525" s="4"/>
       <c r="E525" s="4"/>
@@ -9928,7 +9930,7 @@
     <row r="526" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B526" s="4"/>
       <c r="C526" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D526" s="4"/>
       <c r="E526" s="4"/>
@@ -9950,7 +9952,7 @@
       <c r="B527" s="4"/>
       <c r="C527" s="4"/>
       <c r="D527" s="4" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="E527" s="4"/>
       <c r="F527" s="4"/>
@@ -9971,7 +9973,7 @@
       <c r="B528" s="4"/>
       <c r="C528" s="4"/>
       <c r="D528" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E528" s="4"/>
       <c r="F528" s="4"/>
@@ -9993,7 +9995,7 @@
       <c r="C529" s="4"/>
       <c r="D529" s="4"/>
       <c r="E529" s="4" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="F529" s="4"/>
       <c r="G529" s="4"/>
@@ -10014,7 +10016,7 @@
       <c r="C530" s="4"/>
       <c r="D530" s="4"/>
       <c r="E530" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="F530" s="4"/>
       <c r="G530" s="4"/>
@@ -10035,7 +10037,7 @@
       <c r="C531" s="4"/>
       <c r="D531" s="4"/>
       <c r="E531" s="4" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F531" s="4"/>
       <c r="G531" s="4"/>
@@ -10058,7 +10060,7 @@
       <c r="E532" s="4"/>
       <c r="F532" s="4"/>
       <c r="G532" s="4" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H532" s="4"/>
       <c r="I532" s="4"/>
@@ -10079,7 +10081,7 @@
       <c r="E533" s="4"/>
       <c r="F533" s="4"/>
       <c r="G533" s="4" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H533" s="4"/>
       <c r="I533" s="4"/>
@@ -10100,7 +10102,7 @@
       <c r="E534" s="4"/>
       <c r="F534" s="4"/>
       <c r="G534" s="4" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H534" s="4"/>
       <c r="I534" s="4"/>
@@ -10121,7 +10123,7 @@
       <c r="E535" s="4"/>
       <c r="F535" s="4"/>
       <c r="G535" s="4" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H535" s="4"/>
       <c r="I535" s="4"/>
@@ -10142,7 +10144,7 @@
       <c r="E536" s="4"/>
       <c r="F536" s="4"/>
       <c r="G536" s="4" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H536" s="4"/>
       <c r="I536" s="4"/>
@@ -10180,7 +10182,7 @@
       <c r="C538" s="4"/>
       <c r="D538" s="4"/>
       <c r="E538" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="F538" s="4"/>
       <c r="G538" s="4"/>
@@ -10201,7 +10203,7 @@
       <c r="C539" s="4"/>
       <c r="D539" s="4"/>
       <c r="E539" s="4" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F539" s="4"/>
       <c r="G539" s="4"/>
@@ -10222,7 +10224,7 @@
       <c r="C540" s="4"/>
       <c r="D540" s="4"/>
       <c r="E540" s="4" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F540" s="4"/>
       <c r="G540" s="4"/>
@@ -10243,7 +10245,7 @@
       <c r="C541" s="4"/>
       <c r="D541" s="4"/>
       <c r="E541" s="4" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F541" s="4"/>
       <c r="G541" s="4"/>
@@ -10264,7 +10266,7 @@
       <c r="C542" s="4"/>
       <c r="D542" s="4"/>
       <c r="E542" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F542" s="4"/>
       <c r="G542" s="4"/>
@@ -10286,7 +10288,7 @@
       <c r="D543" s="4"/>
       <c r="E543" s="4"/>
       <c r="F543" s="4" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="G543" s="4"/>
       <c r="H543" s="4"/>
@@ -10307,7 +10309,7 @@
       <c r="D544" s="4"/>
       <c r="E544" s="4"/>
       <c r="F544" s="4" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="G544" s="4"/>
       <c r="H544" s="4"/>
@@ -10329,7 +10331,7 @@
       <c r="E545" s="4"/>
       <c r="F545" s="4"/>
       <c r="G545" s="4" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H545" s="4"/>
       <c r="I545" s="4"/>
@@ -10350,7 +10352,7 @@
       <c r="E546" s="4"/>
       <c r="F546" s="4"/>
       <c r="G546" s="4" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="H546" s="4"/>
       <c r="I546" s="4"/>
@@ -10370,7 +10372,7 @@
       <c r="D547" s="4"/>
       <c r="E547" s="4"/>
       <c r="F547" s="4" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="G547" s="4"/>
       <c r="H547" s="4"/>
@@ -10392,7 +10394,7 @@
       <c r="E548" s="4"/>
       <c r="F548" s="4"/>
       <c r="G548" s="4" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="H548" s="4"/>
       <c r="I548" s="4"/>
@@ -10413,7 +10415,7 @@
       <c r="E549" s="4"/>
       <c r="F549" s="4"/>
       <c r="G549" s="4" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="H549" s="4"/>
       <c r="I549" s="4"/>
@@ -10433,7 +10435,7 @@
       <c r="D550" s="4"/>
       <c r="E550" s="4"/>
       <c r="F550" s="4" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="G550" s="4"/>
       <c r="H550" s="4"/>
@@ -10472,7 +10474,7 @@
       <c r="C552" s="4"/>
       <c r="D552" s="4"/>
       <c r="E552" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F552" s="4"/>
       <c r="G552" s="4"/>
@@ -10493,7 +10495,7 @@
       <c r="C553" s="4"/>
       <c r="D553" s="4"/>
       <c r="E553" s="4" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="F553" s="4"/>
       <c r="G553" s="4"/>
@@ -10514,7 +10516,7 @@
       <c r="C554" s="4"/>
       <c r="D554" s="4"/>
       <c r="E554" s="4" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="F554" s="4"/>
       <c r="G554" s="4"/>
@@ -10535,7 +10537,7 @@
       <c r="C555" s="4"/>
       <c r="D555" s="4"/>
       <c r="E555" s="4" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="F555" s="4"/>
       <c r="G555" s="4"/>
@@ -10556,7 +10558,7 @@
       <c r="C556" s="4"/>
       <c r="D556" s="4"/>
       <c r="E556" s="4" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F556" s="4"/>
       <c r="G556" s="4"/>
@@ -10577,7 +10579,7 @@
       <c r="C557" s="4"/>
       <c r="D557" s="4"/>
       <c r="E557" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F557" s="4"/>
       <c r="G557" s="4"/>
@@ -10599,7 +10601,7 @@
       <c r="D558" s="4"/>
       <c r="E558" s="4"/>
       <c r="F558" s="4" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="G558" s="4"/>
       <c r="H558" s="4"/>
@@ -10620,7 +10622,7 @@
       <c r="D559" s="4"/>
       <c r="E559" s="4"/>
       <c r="F559" s="4" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="G559" s="4"/>
       <c r="H559" s="4"/>
@@ -10642,7 +10644,7 @@
       <c r="E560" s="4"/>
       <c r="F560" s="4"/>
       <c r="G560" s="4" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H560" s="4"/>
       <c r="I560" s="4"/>
@@ -10663,7 +10665,7 @@
       <c r="E561" s="4"/>
       <c r="F561" s="4"/>
       <c r="G561" s="4" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="H561" s="4"/>
       <c r="I561" s="4"/>
@@ -10683,7 +10685,7 @@
       <c r="D562" s="4"/>
       <c r="E562" s="4"/>
       <c r="F562" s="4" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="G562" s="4"/>
       <c r="H562" s="4"/>
@@ -10705,7 +10707,7 @@
       <c r="E563" s="4"/>
       <c r="F563" s="4"/>
       <c r="G563" s="4" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="H563" s="4"/>
       <c r="I563" s="4"/>
@@ -10726,7 +10728,7 @@
       <c r="E564" s="4"/>
       <c r="F564" s="4"/>
       <c r="G564" s="4" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="H564" s="4"/>
       <c r="I564" s="4"/>
@@ -10746,7 +10748,7 @@
       <c r="D565" s="4"/>
       <c r="E565" s="4"/>
       <c r="F565" s="4" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="G565" s="4"/>
       <c r="H565" s="4"/>
@@ -10785,7 +10787,7 @@
       <c r="C567" s="4"/>
       <c r="D567" s="4"/>
       <c r="E567" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F567" s="4"/>
       <c r="G567" s="4"/>
@@ -10825,7 +10827,7 @@
       <c r="C569" s="4"/>
       <c r="D569" s="4"/>
       <c r="E569" s="4" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F569" s="4"/>
       <c r="G569" s="4"/>
@@ -10846,7 +10848,7 @@
       <c r="C570" s="4"/>
       <c r="D570" s="4"/>
       <c r="E570" s="4" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F570" s="4"/>
       <c r="G570" s="4"/>
@@ -10886,7 +10888,7 @@
       <c r="C572" s="4"/>
       <c r="D572" s="4"/>
       <c r="E572" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F572" s="4"/>
       <c r="G572" s="4"/>
@@ -10906,7 +10908,7 @@
       <c r="B573" s="4"/>
       <c r="C573" s="4"/>
       <c r="D573" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E573" s="4"/>
       <c r="F573" s="4"/>
@@ -10928,7 +10930,7 @@
       <c r="C574" s="4"/>
       <c r="D574" s="4"/>
       <c r="E574" s="4" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F574" s="4"/>
       <c r="G574" s="4"/>
@@ -10949,7 +10951,7 @@
       <c r="C575" s="4"/>
       <c r="D575" s="4"/>
       <c r="E575" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F575" s="4"/>
       <c r="G575" s="4"/>
@@ -10969,7 +10971,7 @@
       <c r="B576" s="4"/>
       <c r="C576" s="4"/>
       <c r="D576" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E576" s="4"/>
       <c r="F576" s="4"/>
@@ -10989,7 +10991,7 @@
     <row r="577" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B577" s="4"/>
       <c r="C577" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D577" s="4"/>
       <c r="E577" s="4"/>
@@ -11009,7 +11011,7 @@
     </row>
     <row r="578" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B578" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C578" s="4"/>
       <c r="D578" s="4"/>
@@ -11030,7 +11032,7 @@
     </row>
     <row r="580" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B580" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
   </sheetData>
@@ -11051,165 +11053,165 @@
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C15" t="s">
         <v>1002</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1003</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
   </sheetData>
@@ -11230,4956 +11232,4956 @@
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="65" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="66" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="67" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="68" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="69" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E69" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="70" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E70" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="71" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E71" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="72" spans="3:6" x14ac:dyDescent="0.25">
       <c r="F72" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="73" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E73" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="74" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="75" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="77" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="78" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="79" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="80" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E80" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="81" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E81" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="82" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="83" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E83" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="84" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E84" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="85" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E85" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="86" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D86" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="87" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="88" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E88" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="89" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E89" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="90" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E90" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="92" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D92" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="93" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E93" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="94" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E94" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="95" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E95" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="96" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E96" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D108" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D110" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C117" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C118" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C119" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D120" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C121" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D122" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C123" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C129" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C130" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C131" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D132" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C133" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D134" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C135" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="139" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="140" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C140" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C142" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="143" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C143" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D144" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C145" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D146" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="147" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C147" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="151" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="152" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="153" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C153" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="154" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C154" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="155" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C155" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="156" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D156" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="157" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C157" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="158" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D158" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="159" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C159" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="160" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="164" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="165" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="166" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="167" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C167" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="168" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C168" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="169" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C169" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="170" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C170" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="171" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D171" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="172" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C172" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="173" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D173" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="174" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C174" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="175" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="177" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="178" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="179" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="180" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C180" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="181" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C181" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="182" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C182" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="183" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C183" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="184" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C184" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="186" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C186" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="187" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C187" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="188" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C188" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="189" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C189" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="190" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C190" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="191" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C191" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="193" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C193" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="194" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C194" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="195" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C195" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="196" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D196" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="197" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D197" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="198" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D198" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="199" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D199" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="200" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E200" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="201" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E201" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="202" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D202" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="203" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E203" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="204" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E204" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="205" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D205" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="206" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E206" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="208" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D208" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="209" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D209" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="210" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E210" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="211" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E211" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="212" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E212" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="213" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E213" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="214" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E214" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="215" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F215" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="216" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E216" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="218" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E218" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="219" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E219" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="220" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E220" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="221" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F221" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="222" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F222" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="223" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F223" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="224" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F224" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="226" spans="3:8" x14ac:dyDescent="0.25">
       <c r="F226" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="227" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H227" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="228" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H228" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="229" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H229" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="230" spans="3:8" x14ac:dyDescent="0.25">
       <c r="F230" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="231" spans="3:8" x14ac:dyDescent="0.25">
       <c r="F231" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="232" spans="3:8" x14ac:dyDescent="0.25">
       <c r="G232" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="233" spans="3:8" x14ac:dyDescent="0.25">
       <c r="F233" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="234" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E234" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="235" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D235" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="238" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C238" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="239" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C239" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="240" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C240" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="241" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D241" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="242" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E242" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="243" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E243" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="244" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D244" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="245" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E245" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="246" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E246" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="247" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D247" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="248" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E248" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="249" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C249" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="251" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C251" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="253" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B253" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="255" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B255" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="256" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B256" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="257" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C257" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="258" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C258" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="259" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C259" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="260" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C260" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="262" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C262" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="263" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C263" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="264" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C264" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="265" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C265" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="266" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C266" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="267" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C267" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="268" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C268" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="270" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C270" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="271" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C271" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="272" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C272" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="273" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D273" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="274" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D274" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="275" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D275" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="276" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D276" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="278" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E278" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="279" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D279" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="280" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E280" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="281" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D281" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="283" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D283" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="284" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D284" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="285" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D285" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="287" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D287" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="288" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D288" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="289" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E289" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="290" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E290" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="291" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E291" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="292" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E292" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="293" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E293" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="294" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F294" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="295" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E295" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="297" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E297" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="298" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E298" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="299" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E299" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="300" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F300" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="301" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F301" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="302" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F302" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="303" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F303" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="305" spans="3:8" x14ac:dyDescent="0.25">
       <c r="F305" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="306" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H306" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="307" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H307" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="308" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H308" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="309" spans="3:8" x14ac:dyDescent="0.25">
       <c r="F309" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="310" spans="3:8" x14ac:dyDescent="0.25">
       <c r="F310" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="311" spans="3:8" x14ac:dyDescent="0.25">
       <c r="G311" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="312" spans="3:8" x14ac:dyDescent="0.25">
       <c r="F312" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="313" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E313" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="314" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D314" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="317" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C317" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="318" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C318" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="319" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C319" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="320" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D320" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="321" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E321" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="322" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E322" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="323" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D323" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="324" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E324" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="325" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E325" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="326" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D326" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="327" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E327" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="328" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C328" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="330" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C330" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="331" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B331" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="334" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B334" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="335" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B335" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="336" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B336" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="337" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C337" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="338" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C338" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="339" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D339" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="340" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D340" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="341" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C341" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="342" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C342" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="343" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C343" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="344" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C344" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="345" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C345" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="347" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C347" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="348" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C348" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="350" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C350" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="351" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C351" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="352" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D352" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="353" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C353" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="354" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D354" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="355" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C355" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="357" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C357" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="358" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C358" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="359" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C359" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="361" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C361" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="362" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C362" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="363" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C363" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="364" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D364" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="365" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D365" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="366" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D366" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="367" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E367" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="368" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E368" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="370" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E370" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="371" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E371" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="372" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E372" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="373" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D373" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="374" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C374" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="375" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C375" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="376" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B376" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="378" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B378" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="379" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B379" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="380" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C380" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="381" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C381" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="382" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D382" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="383" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D383" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="384" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C384" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="385" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C385" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="386" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C386" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="387" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C387" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="388" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C388" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="390" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C390" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="391" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C391" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="393" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C393" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="394" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C394" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="395" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D395" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="396" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C396" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="397" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D397" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="398" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C398" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="400" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C400" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="401" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C401" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="402" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C402" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="404" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C404" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="405" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C405" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="406" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C406" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="407" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D407" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="408" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D408" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="409" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D409" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="410" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E410" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="411" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E411" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="413" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E413" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="414" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E414" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="415" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E415" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="416" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D416" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="417" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C417" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="418" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C418" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="419" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B419" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="422" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B422" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="423" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B423" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="424" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C424" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="425" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C425" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="426" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D426" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="427" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D427" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="428" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C428" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="430" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C430" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="431" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C431" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="432" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C432" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="434" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C434" t="s">
+        <v>295</v>
+      </c>
+      <c r="D434" t="s">
         <v>296</v>
-      </c>
-      <c r="D434" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="436" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B436" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="439" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B439" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="440" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B440" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="442" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C442" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="443" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C443" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="444" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D444" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="445" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D445" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="446" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C446" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="448" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C448" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="449" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C449" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="450" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C450" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="451" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C451" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="452" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C452" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="453" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C453" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="454" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C454" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="455" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C455" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="457" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C457" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="458" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C458" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="461" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C461" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="462" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C462" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="464" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C464" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="465" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E465" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="466" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E466" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="467" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E467" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="468" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E468" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="469" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E469" t="s">
+        <v>311</v>
+      </c>
+      <c r="G469" t="s">
         <v>312</v>
-      </c>
-      <c r="G469" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="470" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E470" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="471" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C471" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="472" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C472" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="473" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C473" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="474" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C474" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="475" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C475" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="476" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C476" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="477" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C477" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="479" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C479" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="480" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C480" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="481" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C481" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="482" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C482" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="483" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D483" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="484" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D484" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="485" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C485" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="486" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C486" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="487" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C487" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="488" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C488" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="489" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C489" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="490" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C490" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="491" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C491" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="493" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C493" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="495" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C495" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="496" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C496" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="497" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C497" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="498" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C498" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="499" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C499" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="501" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C501" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="502" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C502" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="503" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C503" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="504" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C504" t="s">
+        <v>334</v>
+      </c>
+      <c r="G504" t="s">
         <v>335</v>
-      </c>
-      <c r="G504" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="505" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C505" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="506" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C506" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="507" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C507" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="508" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C508" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="510" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C510" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="511" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C511" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="512" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C512" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="514" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C514" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="515" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C515" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="516" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C516" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="517" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C517" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="518" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C518" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="519" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C519" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="520" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C520" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="521" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C521" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="522" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C522" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="523" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C523" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="524" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C524" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="525" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C525" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="526" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C526" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="528" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C528" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="529" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C529" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="530" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C530" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="531" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D531" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="532" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C532" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="534" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C534" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="535" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C535" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="536" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C536" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="537" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C537" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="538" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B538" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="541" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B541" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="542" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B542" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="543" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B543" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="544" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C544" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="545" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C545" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="546" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D546" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="547" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D547" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="548" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C548" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="550" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C550" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="551" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C551" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="552" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C552" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="553" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C553" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="554" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C554" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="555" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C555" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="556" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C556" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="557" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C557" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="558" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C558" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="559" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C559" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="560" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C560" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="561" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C561" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="562" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C562" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="563" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C563" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="564" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C564" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="565" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D565" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="566" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D566" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="567" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D567" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="568" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D568" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="569" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C569" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="570" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D570" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="571" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D571" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="572" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D572" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="573" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D573" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="574" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C574" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="575" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C575" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="576" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C576" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="578" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C578" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="579" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C579" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="580" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C580" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="581" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D581" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="582" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D582" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="584" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D584" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="585" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D585" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="586" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D586" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="587" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E587" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="588" spans="3:6" x14ac:dyDescent="0.25">
       <c r="F588" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="589" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E589" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="590" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D590" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="591" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D591" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="592" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D592" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="593" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E593" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="594" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E594" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="596" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E596" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="597" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E597" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="598" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E598" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="599" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E599" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="600" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E600" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="601" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E601" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="602" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E602" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="604" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E604" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="606" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E606" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="607" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E607" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="609" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E609" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="610" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E610" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="611" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E611" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="612" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E612" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="613" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F613" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="614" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E614" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="615" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F615" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="616" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E616" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="618" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E618" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="619" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E619" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="620" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E620" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="621" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E621" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="622" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F622" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="623" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F623" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="624" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F624" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="625" spans="3:6" x14ac:dyDescent="0.25">
       <c r="F625" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="626" spans="3:6" x14ac:dyDescent="0.25">
       <c r="F626" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="627" spans="3:6" x14ac:dyDescent="0.25">
       <c r="F627" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="629" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E629" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="630" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D630" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="631" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C631" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="633" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C633" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="634" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C634" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="635" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D635" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="636" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E636" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="637" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E637" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="638" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D638" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="639" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E639" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="641" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E641" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="642" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E642" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="643" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E643" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="644" spans="5:7" x14ac:dyDescent="0.25">
       <c r="F644" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="645" spans="5:7" x14ac:dyDescent="0.25">
       <c r="F645" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="646" spans="5:7" x14ac:dyDescent="0.25">
       <c r="G646" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="647" spans="5:7" x14ac:dyDescent="0.25">
       <c r="G647" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="648" spans="5:7" x14ac:dyDescent="0.25">
       <c r="F648" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="650" spans="5:7" x14ac:dyDescent="0.25">
       <c r="F650" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="651" spans="5:7" x14ac:dyDescent="0.25">
       <c r="F651" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="652" spans="5:7" x14ac:dyDescent="0.25">
       <c r="F652" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="653" spans="5:7" x14ac:dyDescent="0.25">
       <c r="F653" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="654" spans="5:7" x14ac:dyDescent="0.25">
       <c r="F654" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="655" spans="5:7" x14ac:dyDescent="0.25">
       <c r="F655" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="656" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E656" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="657" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E657" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="658" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E658" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="659" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D659" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="660" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E660" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="661" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E661" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="663" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D663" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="664" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E664" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="665" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E665" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="666" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C666" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="667" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C667" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="668" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B668" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="671" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B671" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="672" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B672" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="673" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B673" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="674" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C674" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="675" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C675" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="676" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D676" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="677" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D677" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="678" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C678" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="680" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C680" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="681" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C681" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="682" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C682" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="683" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C683" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="684" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C684" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="685" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C685" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="686" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C686" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="688" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C688" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="689" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C689" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="690" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C690" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="691" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C691" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="693" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C693" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="695" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C695" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="696" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C696" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="697" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D697" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="698" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D698" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="699" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D699" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="700" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D700" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="701" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C701" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="702" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D702" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="703" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D703" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="704" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D704" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="705" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D705" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="706" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C706" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="708" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C708" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="709" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C709" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="710" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C710" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="712" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C712" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="713" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C713" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="714" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C714" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="715" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C715" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="716" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C716" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="717" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C717" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="719" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C719" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="720" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C720" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="721" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D721" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="723" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C723" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="724" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D724" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="725" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C725" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="727" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C727" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="728" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C728" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="729" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C729" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="730" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C730" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="731" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D731" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="732" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D732" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="733" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D733" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="734" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C734" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="736" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C736" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="738" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B738" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="742" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B742" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="743" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B743" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="744" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B744" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="745" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C745" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="746" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C746" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="747" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D747" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="748" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D748" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="749" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C749" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="751" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C751" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="752" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C752" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="753" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C753" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="754" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C754" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="755" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C755" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="756" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C756" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="757" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C757" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="758" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C758" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="759" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C759" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="760" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C760" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="761" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C761" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="762" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C762" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="764" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C764" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="765" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C765" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="766" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C766" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="767" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C767" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="768" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C768" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="769" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C769" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="771" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C771" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="772" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C772" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="773" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D773" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="774" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D774" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="775" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D775" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="776" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D776" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="778" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C778" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="779" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D779" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="780" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D780" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="781" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D781" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="782" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D782" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="783" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C783" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="784" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C784" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="786" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C786" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="787" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C787" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="788" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C788" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="789" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C789" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="790" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C790" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="792" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C792" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="793" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B793" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="796" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B796" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="797" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B797" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="798" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B798" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="799" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C799" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="800" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C800" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="801" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D801" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="802" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D802" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="803" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C803" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="805" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C805" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="806" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C806" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="807" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C807" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="809" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C809" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="810" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C810" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="811" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C811" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="812" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D812" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="813" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D813" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="814" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C814" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="815" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D815" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="816" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D816" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="817" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C817" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="818" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B818" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="822" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B822" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="823" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B823" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="824" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B824" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="825" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C825" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="826" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C826" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="827" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D827" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="828" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D828" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="829" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C829" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="830" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C830" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="831" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C831" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="833" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C833" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="834" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C834" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="836" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C836" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="837" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C837" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="838" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D838" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="839" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D839" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="840" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C840" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="842" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C842" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="843" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C843" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="844" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C844" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="845" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C845" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="846" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C846" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="848" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C848" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="849" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C849" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="850" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C850" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="851" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D851" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="852" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D852" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="853" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D853" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="854" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E854" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="855" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E855" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="856" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D856" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="858" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C858" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="859" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C859" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="861" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B861" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="865" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B865" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="866" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B866" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="867" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B867" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="868" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C868" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="869" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C869" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="870" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D870" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="871" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D871" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="872" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C872" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="873" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C873" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="874" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C874" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="876" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C876" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="877" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C877" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="879" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C879" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="880" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C880" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="881" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D881" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="882" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D882" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="883" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C883" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="885" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C885" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="886" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C886" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="887" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C887" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="888" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C888" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="889" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C889" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="890" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C890" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="892" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C892" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="893" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C893" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="894" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C894" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="895" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C895" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="896" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D896" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="897" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C897" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="898" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C898" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="900" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B900" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="903" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B903" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="904" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B904" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="905" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B905" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="906" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C906" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="907" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C907" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="908" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D908" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="909" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D909" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="910" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C910" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="911" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C911" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="912" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C912" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="913" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C913" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="914" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C914" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="915" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C915" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="916" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C916" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="917" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C917" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="919" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B919" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="922" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B922" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="923" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B923" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="924" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B924" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="925" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C925" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="926" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C926" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="927" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D927" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="928" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D928" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="929" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C929" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="931" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C931" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="932" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C932" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="933" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C933" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="934" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C934" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="935" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C935" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="936" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C936" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="937" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C937" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="939" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C939" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="940" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C940" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="941" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C941" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="942" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C942" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="943" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D943" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="944" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D944" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="945" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C945" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="946" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D946" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="947" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D947" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="948" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C948" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="949" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C949" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="950" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C950" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="951" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C951" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="952" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C952" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="954" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C954" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="955" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C955" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="956" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C956" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="957" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C957" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="958" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C958" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="960" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C960" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="962" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C962" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="963" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C963" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="964" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C964" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="965" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D965" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="966" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C966" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="967" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C967" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="968" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C968" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="969" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C969" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="970" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C970" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="971" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D971" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="972" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D972" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="973" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C973" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="974" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C974" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="975" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C975" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="976" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C976" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="977" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C977" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="978" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D978" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="979" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D979" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="980" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D980" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="981" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D981" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="982" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C982" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="983" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C983" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="984" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C984" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="985" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C985" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="986" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D986" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="987" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D987" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="988" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C988" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="990" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C990" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="991" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C991" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="992" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C992" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="993" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C993" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="994" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C994" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="995" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D995" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="996" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D996" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="997" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C997" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="999" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C999" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="1000" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C1000" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="1001" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C1001" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="1002" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C1002" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="1003" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C1003" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="1004" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C1004" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="1005" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C1005" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="1006" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C1006" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="1007" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C1007" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="1008" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C1008" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="1009" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C1009" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="1010" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C1010" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="1011" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C1011" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="1013" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C1013" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="1014" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C1014" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="1015" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C1015" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="1016" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C1016" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="1017" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C1017" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="1018" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D1018" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="1019" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D1019" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="1021" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D1021" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="1022" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D1022" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="1023" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D1023" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="1024" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D1024" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="1025" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D1025" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="1027" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C1027" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="1028" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C1028" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="1029" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C1029" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="1030" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1030" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="1033" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1033" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="1034" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1034" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="1035" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1035" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="1036" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C1036" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="1037" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C1037" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="1038" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D1038" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="1039" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D1039" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="1040" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C1040" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="1042" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C1042" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="1043" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C1043" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="1044" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C1044" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="1045" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C1045" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="1046" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D1046" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="1047" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D1047" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="1048" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C1048" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="1049" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D1049" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="1050" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D1050" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="1051" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C1051" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="1052" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C1052" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="1053" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C1053" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="1054" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C1054" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="1055" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C1055" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="1056" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C1056" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="1057" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1057" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="1058" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1058" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="1059" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1059" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="1060" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1060" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="1061" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1061" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="1062" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1062" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="1063" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D1063" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="1064" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D1064" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="1066" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D1066" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="1067" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D1067" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="1068" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E1068" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="1069" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E1069" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="1070" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D1070" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="1071" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E1071" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="1072" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E1072" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="1073" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D1073" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="1077" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C1077" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="1078" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C1078" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="1080" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C1080" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="1081" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C1081" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="1082" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C1082" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="1083" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C1083" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="1084" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D1084" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="1085" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D1085" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="1086" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C1086" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="1087" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C1087" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="1089" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C1089" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="1092" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C1092" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="1093" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1093" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="1097" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1097" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="1098" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1098" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="1099" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1099" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="1100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C1100" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="1101" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C1101" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="1102" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D1102" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="1103" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D1103" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="1104" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C1104" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="1106" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C1106" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="1107" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C1107" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="1108" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C1108" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="1109" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C1109" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="1110" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C1110" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="1112" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C1112" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="1113" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C1113" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="1114" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D1114" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="1115" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D1115" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="1116" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D1116" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="1118" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D1118" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="1119" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C1119" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="1120" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D1120" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="1121" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D1121" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="1122" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C1122" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="1124" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C1124" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1125" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C1125" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="1126" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C1126" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="1127" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C1127" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="1128" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C1128" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="1129" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C1129" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="1130" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C1130" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="1131" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C1131" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="1133" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C1133" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="1134" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C1134" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="1135" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C1135" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="1137" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1137" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="1138" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D1138" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="1139" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1139" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="1140" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1140" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="1142" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D1142" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="1143" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D1143" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="1144" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D1144" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="1145" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D1145" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="1147" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D1147" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="1148" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D1148" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="1149" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E1149" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="1151" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E1151" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="1152" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E1152" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="1153" spans="3:7" x14ac:dyDescent="0.25">
       <c r="F1153" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="1154" spans="3:7" x14ac:dyDescent="0.25">
       <c r="F1154" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="1155" spans="3:7" x14ac:dyDescent="0.25">
       <c r="F1155" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="1156" spans="3:7" x14ac:dyDescent="0.25">
       <c r="F1156" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="1157" spans="3:7" x14ac:dyDescent="0.25">
       <c r="F1157" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="1158" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G1158" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="1159" spans="3:7" x14ac:dyDescent="0.25">
       <c r="F1159" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="1160" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E1160" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="1161" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1161" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="1162" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E1162" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="1163" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1163" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="1165" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D1165" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="1166" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C1166" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="1168" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C1168" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="1169" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1169" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="1171" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1171" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
   </sheetData>
